--- a/Theo dõi giấc ngủ Mifit.xlsx
+++ b/Theo dõi giấc ngủ Mifit.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="8595" windowHeight="6735"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="8595" windowHeight="6735" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Dự báo mưa" sheetId="2" r:id="rId2"/>
     <sheet name="Dự báo nhiệt độ" sheetId="3" r:id="rId3"/>
+    <sheet name="Theo dõi nhiệt độ" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
   <si>
     <t xml:space="preserve">Light </t>
   </si>
@@ -329,6 +331,48 @@
   </si>
   <si>
     <t>Mifit đo</t>
+  </si>
+  <si>
+    <t>https://weather.com/vi-VN/weather/hourbyhour/l/e4f3028ded4eaa85aa504baa51acd7b6df7932ebc68c9d7aff1c838d1178f42c</t>
+  </si>
+  <si>
+    <t>Link:</t>
+  </si>
+  <si>
+    <t>Áp suất (mmHg)</t>
+  </si>
+  <si>
+    <t>Thời gian</t>
+  </si>
+  <si>
+    <t>Mặc dù ngày đo áp suất là Thứ 4 (6/4/2022) nhưng lại lấy dữ liệu từng giờ ngày thứ 5 (7/4/2022) vì Bin thấy dữ liệu ngày thứ 5 này cũng giống với dữ liệu ngày thứ 4 (Cùng có độ chêch là 32/24 độ)</t>
+  </si>
+  <si>
+    <t>Nhiệt độ theo gg</t>
+  </si>
+  <si>
+    <t>Nhiệt đồ nhiều nguồn khác</t>
+  </si>
+  <si>
+    <t>Bin theo dõi và nhận thấy 1 điều là Nhiệt độ càng cao thì áp suất càng tăng và ngược lại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lúc 22:40 </t>
+  </si>
+  <si>
+    <t>https://ithongtin.com/index.php/du-bao-thoi-tiet-ho-chi-minh/quan-5-hien-tai</t>
+  </si>
+  <si>
+    <t>NHẬN XÉT: NẾU ĐỂ Ý TỈ SỐ 2 BÊN BIN CHIA THÌ SẼ THẤY BẤT CỨ NHIỆT ĐỘ, ÁP SUẤT NÀO CŨNG CÓ: T1/T2=P1/P2 ĐÚNG LÝ THUYẾT BIN HỌC LUÔN (NHƯNG NHỚ ĐỔI SANG ĐỘ KEVIN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Năm nhuận </t>
+  </si>
+  <si>
+    <t>https://artofmemory.com/blog/how-to-calculate-the-day-of-the-week/</t>
+  </si>
+  <si>
+    <t>https://time.is/Germany</t>
   </si>
 </sst>
 </file>
@@ -368,7 +412,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,6 +446,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -589,7 +639,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -616,16 +690,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -640,21 +708,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,6 +740,201 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>220127</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="381000"/>
+          <a:ext cx="7535327" cy="5963483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>229654</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4181475"/>
+          <a:ext cx="7544854" cy="5953956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>220121</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>67431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="7991475"/>
+          <a:ext cx="7487696" cy="5410956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>315224</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7896225" y="2667000"/>
+          <a:ext cx="6439799" cy="2076740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419925</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>95657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14325600"/>
+          <a:ext cx="5906325" cy="2915057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -969,7 +1226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="I7" sqref="I7:N12"/>
     </sheetView>
   </sheetViews>
@@ -1089,14 +1346,14 @@
         <f>C7+E7</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
@@ -1120,12 +1377,12 @@
         <f t="shared" ref="G8:G35" si="2">C8+E8</f>
         <v>0.22291666666666668</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
@@ -1149,12 +1406,12 @@
         <f t="shared" si="2"/>
         <v>0.22361111111111112</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
@@ -1178,12 +1435,12 @@
         <f t="shared" si="2"/>
         <v>0.28611111111111109</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
@@ -1207,12 +1464,12 @@
         <f t="shared" si="2"/>
         <v>0.24513888888888891</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
@@ -1236,12 +1493,12 @@
         <f t="shared" si="2"/>
         <v>0.29791666666666666</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
@@ -1498,16 +1755,16 @@
         <f t="shared" si="2"/>
         <v>0.30486111111111114</v>
       </c>
-      <c r="J23" s="42" t="s">
+      <c r="J23" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
@@ -1564,20 +1821,20 @@
         <f t="shared" si="2"/>
         <v>0.24791666666666667</v>
       </c>
-      <c r="J25" s="34" t="s">
+      <c r="J25" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="K25" s="47">
+      <c r="K25" s="28">
         <f>2*60+31</f>
         <v>151</v>
       </c>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48">
+      <c r="L25" s="29"/>
+      <c r="M25" s="29">
         <f>4*60+26</f>
         <v>266</v>
       </c>
-      <c r="N25" s="48"/>
-      <c r="O25" s="49">
+      <c r="N25" s="29"/>
+      <c r="O25" s="30">
         <f>6*60+57</f>
         <v>417</v>
       </c>
@@ -1606,27 +1863,27 @@
         <f t="shared" si="2"/>
         <v>0.41249999999999998</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="50">
+      <c r="J26" s="43"/>
+      <c r="K26" s="31">
         <v>0.10486111111111111</v>
       </c>
-      <c r="L26" s="51">
+      <c r="L26" s="32">
         <f>K26/O26</f>
         <v>0.36211031175059949</v>
       </c>
-      <c r="M26" s="50">
+      <c r="M26" s="31">
         <v>0.18472222222222223</v>
       </c>
-      <c r="N26" s="51">
+      <c r="N26" s="32">
         <f>M26/O26</f>
         <v>0.63788968824940051</v>
       </c>
-      <c r="O26" s="52">
+      <c r="O26" s="33">
         <f>SUM(K26,M26)</f>
         <v>0.28958333333333336</v>
       </c>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
@@ -1654,14 +1911,14 @@
       <c r="K27" s="12">
         <v>170</v>
       </c>
-      <c r="L27" s="45">
+      <c r="L27" s="26">
         <f>K27/O27</f>
         <v>0.4582210242587601</v>
       </c>
       <c r="M27" s="12">
         <v>201</v>
       </c>
-      <c r="N27" s="45">
+      <c r="N27" s="26">
         <f>M27/O27</f>
         <v>0.5417789757412399</v>
       </c>
@@ -1734,17 +1991,17 @@
       <c r="J29" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="K29" s="46">
+      <c r="K29" s="27">
         <f>K25-K27</f>
         <v>-19</v>
       </c>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46">
+      <c r="L29" s="27"/>
+      <c r="M29" s="27">
         <f>M25-M27</f>
         <v>65</v>
       </c>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46">
+      <c r="N29" s="27"/>
+      <c r="O29" s="27">
         <f>O25-O27</f>
         <v>46</v>
       </c>
@@ -1987,17 +2244,17 @@
       <c r="D3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="34" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="J3" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
     </row>
     <row r="4" spans="2:13" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="21" t="s">
@@ -2009,15 +2266,15 @@
       <c r="D4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
     </row>
     <row r="5" spans="2:13" ht="92.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
@@ -2029,15 +2286,15 @@
       <c r="D5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="J5" s="40" t="s">
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="50"/>
+      <c r="J5" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="2:13" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
@@ -2287,11 +2544,11 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
       <c r="G18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2468,10 +2725,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q107"/>
+  <dimension ref="B2:U107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2553,18 +2810,18 @@
       </c>
       <c r="C5" s="12">
         <f>E5/0.00750061683</f>
-        <v>101324.99996003661</v>
+        <v>101858.28943351049</v>
       </c>
       <c r="D5" s="12">
         <f>E5/25.399999704976</f>
-        <v>29.921260190058657</v>
+        <v>30.078740506848437</v>
       </c>
       <c r="E5" s="17">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="F5" s="13">
         <f>E5/1.8683201548767</f>
-        <v>406.78253029398826</v>
+        <v>408.92349097974608</v>
       </c>
       <c r="J5" s="12">
         <f>L5/0.00750061683</f>
@@ -2609,6 +2866,9 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>101858.28943351</v>
+      </c>
       <c r="M8">
         <f>M7*N7</f>
         <v>75006.168300000005</v>
@@ -2627,14 +2887,14 @@
       <c r="H11" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="M11" s="26" t="s">
+      <c r="K11" s="44"/>
+      <c r="M11" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="N11" s="26"/>
+      <c r="N11" s="44"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E12">
@@ -2713,7 +2973,7 @@
         <v>763.61529761180998</v>
       </c>
     </row>
-    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:21" x14ac:dyDescent="0.25">
       <c r="G17">
         <f>0.0065*E13/G16</f>
         <v>-32.860538590970329</v>
@@ -2726,7 +2986,7 @@
         <v>765.68546785689</v>
       </c>
     </row>
-    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:21" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>88</v>
       </c>
@@ -2738,7 +2998,7 @@
         <v>765.69296847372004</v>
       </c>
     </row>
-    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F19">
         <f>H19/G19*J19</f>
         <v>26.273684210526316</v>
@@ -2759,8 +3019,17 @@
         <f t="shared" si="0"/>
         <v>765.70046909054997</v>
       </c>
-    </row>
-    <row r="20" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <v>770</v>
+      </c>
+      <c r="T19">
+        <v>771</v>
+      </c>
+      <c r="U19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="6:21" x14ac:dyDescent="0.25">
       <c r="H20">
         <f>10*28.5/(0.0065*8.315)</f>
         <v>5273.1393681483887</v>
@@ -2773,7 +3042,7 @@
         <v>765.70796970738002</v>
       </c>
     </row>
-    <row r="21" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:21" x14ac:dyDescent="0.25">
       <c r="N21">
         <v>102087</v>
       </c>
@@ -2782,7 +3051,7 @@
         <v>765.71547032421006</v>
       </c>
     </row>
-    <row r="22" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:21" x14ac:dyDescent="0.25">
       <c r="I22">
         <v>19</v>
       </c>
@@ -2801,7 +3070,7 @@
         <v>765.72297094103999</v>
       </c>
     </row>
-    <row r="23" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:21" x14ac:dyDescent="0.25">
       <c r="N23">
         <v>102089</v>
       </c>
@@ -2810,7 +3079,7 @@
         <v>765.73047155787003</v>
       </c>
     </row>
-    <row r="24" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:21" x14ac:dyDescent="0.25">
       <c r="N24">
         <v>102090</v>
       </c>
@@ -2819,7 +3088,7 @@
         <v>765.73797217469996</v>
       </c>
     </row>
-    <row r="25" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:21" x14ac:dyDescent="0.25">
       <c r="N25">
         <v>102091</v>
       </c>
@@ -2828,7 +3097,7 @@
         <v>765.74547279153001</v>
       </c>
     </row>
-    <row r="26" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F26">
         <f>((0.0065*$E$13)/(1-(G26/$G$13)^(1/5.257)))-273.15-0.0065*$E$13</f>
         <v>7621.1780860057588</v>
@@ -2848,7 +3117,7 @@
         <v>765.75297340836005</v>
       </c>
     </row>
-    <row r="27" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F27">
         <f t="shared" ref="F27:F58" si="1">((0.0065*$E$13)/(1-(G27/$G$13)^(1/5.257)))-273.15-0.0065*$E$13</f>
         <v>-792.5183458503127</v>
@@ -2868,7 +3137,7 @@
         <v>765.76047402518998</v>
       </c>
     </row>
-    <row r="28" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F28">
         <f t="shared" si="1"/>
         <v>-524.76948135085149</v>
@@ -2888,7 +3157,7 @@
         <v>765.62546292224999</v>
       </c>
     </row>
-    <row r="29" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F29">
         <f t="shared" si="1"/>
         <v>-439.26698117911855</v>
@@ -2908,7 +3177,7 @@
         <v>765.53545552029004</v>
       </c>
     </row>
-    <row r="30" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F30">
         <f t="shared" si="1"/>
         <v>-397.18527778761592</v>
@@ -2921,7 +3190,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="31" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F31">
         <f t="shared" si="1"/>
         <v>-372.14647966671629</v>
@@ -2947,7 +3216,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="32" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F32">
         <f t="shared" si="1"/>
         <v>-355.54061945736777</v>
@@ -3584,14 +3853,14 @@
       <c r="I80" t="s">
         <v>87</v>
       </c>
-      <c r="K80" s="26" t="s">
+      <c r="K80" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="L80" s="26"/>
-      <c r="N80" s="26" t="s">
+      <c r="L80" s="44"/>
+      <c r="N80" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="O80" s="26"/>
+      <c r="O80" s="44"/>
     </row>
     <row r="81" spans="3:15" x14ac:dyDescent="0.25">
       <c r="F81">
@@ -3632,24 +3901,24 @@
       <c r="D84" t="s">
         <v>88</v>
       </c>
-      <c r="E84" s="26" t="s">
+      <c r="E84" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F84" s="26"/>
-      <c r="G84" s="41" t="s">
+      <c r="F84" s="44"/>
+      <c r="G84" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="H84" s="42"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="43"/>
-      <c r="K84" s="26" t="s">
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="58"/>
+      <c r="K84" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="L84" s="26"/>
-      <c r="N84" s="26" t="s">
+      <c r="L84" s="44"/>
+      <c r="N84" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="O84" s="26"/>
+      <c r="O84" s="44"/>
     </row>
     <row r="85" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C85">
@@ -4370,4 +4639,932 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:X75"/>
+  <sheetViews>
+    <sheetView topLeftCell="E40" workbookViewId="0">
+      <selection activeCell="U51" sqref="U51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="O2" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="P2" s="40"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N7" s="2">
+        <v>0.74930555555555556</v>
+      </c>
+      <c r="O7">
+        <v>778</v>
+      </c>
+      <c r="P7">
+        <v>30</v>
+      </c>
+      <c r="Q7">
+        <v>30</v>
+      </c>
+      <c r="R7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>764</v>
+      </c>
+      <c r="P8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N9" s="2">
+        <v>0.7597222222222223</v>
+      </c>
+      <c r="O9">
+        <v>782</v>
+      </c>
+      <c r="P9">
+        <v>33</v>
+      </c>
+      <c r="R9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N10" s="2">
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="O10">
+        <v>778</v>
+      </c>
+      <c r="P10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N11" s="2">
+        <v>0.81111111111111101</v>
+      </c>
+      <c r="O11">
+        <v>774</v>
+      </c>
+      <c r="P11">
+        <v>28</v>
+      </c>
+      <c r="Q11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N12" s="2">
+        <v>0.89097222222222217</v>
+      </c>
+      <c r="O12">
+        <v>771</v>
+      </c>
+      <c r="P12">
+        <v>27</v>
+      </c>
+      <c r="Q12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N13" s="2">
+        <v>0.92222222222222217</v>
+      </c>
+      <c r="O13">
+        <v>772</v>
+      </c>
+      <c r="P13">
+        <v>27</v>
+      </c>
+      <c r="Q13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N14" s="2">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="O14">
+        <v>768</v>
+      </c>
+      <c r="P14">
+        <v>27</v>
+      </c>
+      <c r="Q14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P32" s="34"/>
+      <c r="Q32" s="29">
+        <v>764</v>
+      </c>
+      <c r="R32" s="29">
+        <v>26</v>
+      </c>
+      <c r="S32" s="29">
+        <f>R32+273</f>
+        <v>299</v>
+      </c>
+      <c r="T32" s="30"/>
+    </row>
+    <row r="33" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P33" s="14">
+        <f>Q33/$Q$32</f>
+        <v>1.0052356020942408</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>768</v>
+      </c>
+      <c r="R33" s="12">
+        <v>27</v>
+      </c>
+      <c r="S33" s="12">
+        <f>R33+273</f>
+        <v>300</v>
+      </c>
+      <c r="T33" s="13">
+        <f>S33/$S$32</f>
+        <v>1.0033444816053512</v>
+      </c>
+    </row>
+    <row r="34" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P34" s="35">
+        <f>Q34/$Q$32</f>
+        <v>1.0091623036649215</v>
+      </c>
+      <c r="Q34" s="36">
+        <v>771</v>
+      </c>
+      <c r="R34" s="36">
+        <v>28</v>
+      </c>
+      <c r="S34" s="36">
+        <f t="shared" ref="S34:S37" si="0">R34+273</f>
+        <v>301</v>
+      </c>
+      <c r="T34" s="37">
+        <f>S34/$S$32</f>
+        <v>1.0066889632107023</v>
+      </c>
+    </row>
+    <row r="35" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P35" s="14">
+        <f t="shared" ref="P35:P37" si="1">Q35/$Q$32</f>
+        <v>1.0130890052356021</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>774</v>
+      </c>
+      <c r="R35" s="12">
+        <v>29</v>
+      </c>
+      <c r="S35" s="12">
+        <f t="shared" si="0"/>
+        <v>302</v>
+      </c>
+      <c r="T35" s="13">
+        <f t="shared" ref="T35:T37" si="2">S35/$S$32</f>
+        <v>1.0100334448160535</v>
+      </c>
+    </row>
+    <row r="36" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P36" s="14">
+        <f t="shared" si="1"/>
+        <v>1.0183246073298429</v>
+      </c>
+      <c r="Q36" s="12">
+        <v>778</v>
+      </c>
+      <c r="R36" s="12">
+        <v>30</v>
+      </c>
+      <c r="S36" s="12">
+        <f t="shared" si="0"/>
+        <v>303</v>
+      </c>
+      <c r="T36" s="13">
+        <f t="shared" si="2"/>
+        <v>1.0133779264214047</v>
+      </c>
+    </row>
+    <row r="37" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P37" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0235602094240839</v>
+      </c>
+      <c r="Q37" s="16">
+        <v>782</v>
+      </c>
+      <c r="R37" s="16">
+        <v>33</v>
+      </c>
+      <c r="S37" s="16">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="T37" s="38">
+        <f t="shared" si="2"/>
+        <v>1.0234113712374582</v>
+      </c>
+    </row>
+    <row r="40" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="R40" s="34"/>
+      <c r="S40" s="29">
+        <v>764</v>
+      </c>
+      <c r="T40" s="29">
+        <v>26</v>
+      </c>
+      <c r="U40" s="29">
+        <f>T40+273</f>
+        <v>299</v>
+      </c>
+      <c r="V40" s="30"/>
+    </row>
+    <row r="41" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="R41" s="14">
+        <f>S41/$Q$32</f>
+        <v>1.0052356020942408</v>
+      </c>
+      <c r="S41" s="12">
+        <v>768</v>
+      </c>
+      <c r="T41" s="12">
+        <v>27</v>
+      </c>
+      <c r="U41" s="12">
+        <f>T41+273</f>
+        <v>300</v>
+      </c>
+      <c r="V41" s="13">
+        <f>U41/$S$32</f>
+        <v>1.0033444816053512</v>
+      </c>
+    </row>
+    <row r="42" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="R42" s="35">
+        <f>S42/$Q$32</f>
+        <v>1.0091623036649215</v>
+      </c>
+      <c r="S42" s="36">
+        <v>771</v>
+      </c>
+      <c r="T42" s="36">
+        <v>28</v>
+      </c>
+      <c r="U42" s="36">
+        <f t="shared" ref="U42:U45" si="3">T42+273</f>
+        <v>301</v>
+      </c>
+      <c r="V42" s="37">
+        <f>U42/$S$32</f>
+        <v>1.0066889632107023</v>
+      </c>
+    </row>
+    <row r="43" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <f>S43/$S$42</f>
+        <v>1.0038910505836576</v>
+      </c>
+      <c r="R43" s="14">
+        <f t="shared" ref="R43:R45" si="4">S43/$Q$32</f>
+        <v>1.0130890052356021</v>
+      </c>
+      <c r="S43" s="12">
+        <v>774</v>
+      </c>
+      <c r="T43" s="12">
+        <v>29</v>
+      </c>
+      <c r="U43" s="12">
+        <f t="shared" si="3"/>
+        <v>302</v>
+      </c>
+      <c r="V43" s="13">
+        <f t="shared" ref="V43:V45" si="5">U43/$S$32</f>
+        <v>1.0100334448160535</v>
+      </c>
+      <c r="W43">
+        <f>U43/$U$42</f>
+        <v>1.0033222591362125</v>
+      </c>
+    </row>
+    <row r="44" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <f>S44/$S$43</f>
+        <v>1.0051679586563307</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" ref="Q44:Q45" si="6">S44/$S$42</f>
+        <v>1.0090791180285343</v>
+      </c>
+      <c r="R44" s="14">
+        <f t="shared" si="4"/>
+        <v>1.0183246073298429</v>
+      </c>
+      <c r="S44" s="12">
+        <v>778</v>
+      </c>
+      <c r="T44" s="12">
+        <v>30</v>
+      </c>
+      <c r="U44" s="12">
+        <f t="shared" si="3"/>
+        <v>303</v>
+      </c>
+      <c r="V44" s="13">
+        <f t="shared" si="5"/>
+        <v>1.0133779264214047</v>
+      </c>
+      <c r="W44">
+        <f t="shared" ref="W44:W45" si="7">U44/$U$42</f>
+        <v>1.0066445182724253</v>
+      </c>
+      <c r="X44">
+        <f>U44/$U$43</f>
+        <v>1.0033112582781456</v>
+      </c>
+    </row>
+    <row r="45" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <f>S45/$S$43</f>
+        <v>1.0103359173126616</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="6"/>
+        <v>1.0142671854734111</v>
+      </c>
+      <c r="R45" s="15">
+        <f t="shared" si="4"/>
+        <v>1.0235602094240839</v>
+      </c>
+      <c r="S45" s="16">
+        <v>782</v>
+      </c>
+      <c r="T45" s="16">
+        <v>33</v>
+      </c>
+      <c r="U45" s="16">
+        <f t="shared" si="3"/>
+        <v>306</v>
+      </c>
+      <c r="V45" s="38">
+        <f t="shared" si="5"/>
+        <v>1.0234113712374582</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="7"/>
+        <v>1.0166112956810631</v>
+      </c>
+      <c r="X45">
+        <f>U45/$U$43</f>
+        <v>1.0132450331125828</v>
+      </c>
+    </row>
+    <row r="47" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P47" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="60"/>
+      <c r="T47" s="60"/>
+      <c r="U47" s="60"/>
+      <c r="V47" s="60"/>
+      <c r="W47" s="60"/>
+      <c r="X47" s="60"/>
+    </row>
+    <row r="48" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="60"/>
+      <c r="S48" s="60"/>
+      <c r="T48" s="60"/>
+      <c r="U48" s="60"/>
+      <c r="V48" s="60"/>
+      <c r="W48" s="60"/>
+      <c r="X48" s="60"/>
+    </row>
+    <row r="50" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="S50">
+        <v>669</v>
+      </c>
+      <c r="T50">
+        <f>U50-273</f>
+        <v>-11.179319371727729</v>
+      </c>
+      <c r="U50">
+        <f>U51*S50/S51</f>
+        <v>261.82068062827227</v>
+      </c>
+    </row>
+    <row r="51" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R51" s="34"/>
+      <c r="S51" s="29">
+        <v>764</v>
+      </c>
+      <c r="T51" s="29">
+        <v>26</v>
+      </c>
+      <c r="U51" s="29">
+        <f>T51+273</f>
+        <v>299</v>
+      </c>
+      <c r="V51" s="30"/>
+    </row>
+    <row r="52" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R52" s="14">
+        <f>S52/$Q$32</f>
+        <v>1.0052356020942408</v>
+      </c>
+      <c r="S52" s="12">
+        <v>768</v>
+      </c>
+      <c r="T52" s="12">
+        <v>27</v>
+      </c>
+      <c r="U52" s="12">
+        <f>T52+273</f>
+        <v>300</v>
+      </c>
+      <c r="V52" s="13">
+        <f>U52/$S$32</f>
+        <v>1.0033444816053512</v>
+      </c>
+    </row>
+    <row r="53" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R53" s="35">
+        <f>S53/$Q$32</f>
+        <v>1.0091623036649215</v>
+      </c>
+      <c r="S53" s="36">
+        <v>771</v>
+      </c>
+      <c r="T53" s="36">
+        <v>28</v>
+      </c>
+      <c r="U53" s="36">
+        <f t="shared" ref="U53:U56" si="8">T53+273</f>
+        <v>301</v>
+      </c>
+      <c r="V53" s="37">
+        <f>U53/$S$32</f>
+        <v>1.0066889632107023</v>
+      </c>
+    </row>
+    <row r="54" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R54" s="14">
+        <f t="shared" ref="R54:R56" si="9">S54/$Q$32</f>
+        <v>1.0130890052356021</v>
+      </c>
+      <c r="S54" s="12">
+        <v>774</v>
+      </c>
+      <c r="T54" s="12">
+        <v>29</v>
+      </c>
+      <c r="U54" s="12">
+        <f t="shared" si="8"/>
+        <v>302</v>
+      </c>
+      <c r="V54" s="13">
+        <f t="shared" ref="V54:V56" si="10">U54/$S$32</f>
+        <v>1.0100334448160535</v>
+      </c>
+    </row>
+    <row r="55" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R55" s="14">
+        <f t="shared" si="9"/>
+        <v>1.0183246073298429</v>
+      </c>
+      <c r="S55" s="12">
+        <v>778</v>
+      </c>
+      <c r="T55" s="12">
+        <v>30</v>
+      </c>
+      <c r="U55" s="12">
+        <f t="shared" si="8"/>
+        <v>303</v>
+      </c>
+      <c r="V55" s="13">
+        <f t="shared" si="10"/>
+        <v>1.0133779264214047</v>
+      </c>
+    </row>
+    <row r="56" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R56" s="15">
+        <f t="shared" si="9"/>
+        <v>1.0235602094240839</v>
+      </c>
+      <c r="S56" s="16">
+        <v>782</v>
+      </c>
+      <c r="T56" s="16">
+        <v>33</v>
+      </c>
+      <c r="U56" s="16">
+        <f t="shared" si="8"/>
+        <v>306</v>
+      </c>
+      <c r="V56" s="38">
+        <f t="shared" si="10"/>
+        <v>1.0234113712374582</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M66" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="N66">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="P47:X48"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="39">
+        <v>42456</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="0">C4-C3</f>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="39">
+        <v>42820</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="39">
+        <v>43184</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="39">
+        <v>43555</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="39">
+        <v>43919</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="39">
+        <v>44283</v>
+      </c>
+      <c r="D8">
+        <f>C9-C8</f>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="39">
+        <v>44647</v>
+      </c>
+      <c r="D9">
+        <f>C10-C9</f>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="39">
+        <v>45011</v>
+      </c>
+      <c r="D10">
+        <f>C11-C10</f>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="39">
+        <v>45382</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D15" si="1">C12-C11</f>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="39">
+        <v>45746</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="39">
+        <v>46110</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="39">
+        <v>46474</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="39">
+        <v>46838</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>364</v>
+      </c>
+      <c r="J15" s="39">
+        <v>44647</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="39">
+        <v>47202</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="N16">
+        <v>24</v>
+      </c>
+      <c r="O16">
+        <f>SUM($M$17,N16)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17">
+        <v>25</v>
+      </c>
+      <c r="O17">
+        <f>SUM($M$17,N17)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>26</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18:O22" si="2">SUM($M$17,N18)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19">
+        <v>27</v>
+      </c>
+      <c r="N19">
+        <v>27</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="N20">
+        <v>28</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f>SUM(J16:J20)</f>
+        <v>42</v>
+      </c>
+      <c r="N21">
+        <v>29</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>30</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>SUM(D28:D32)</f>
+        <v>49</v>
+      </c>
+      <c r="E33">
+        <f>SUM(E28:E32)</f>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>